--- a/ShoppingList/Lista_zakupów.xlsx
+++ b/ShoppingList/Lista_zakupów.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barto\IPZ\IPZ\ShoppingList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D20FF3-F252-4628-891D-5F2B5457049D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19A91E3-D6DB-49A0-B83F-FD43370E2CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{481C5104-1267-4EC0-9C85-AE1D523D59C3}"/>
+    <workbookView xWindow="5388" yWindow="588" windowWidth="17280" windowHeight="8880" xr2:uid="{481C5104-1267-4EC0-9C85-AE1D523D59C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Nazwa:</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Serwo do kół przednich</t>
   </si>
   <si>
-    <t>https://botland.com.pl/serwa-typu-micro/13128-serwo-sg-90-micro-180-5904422350338.html </t>
-  </si>
-  <si>
     <t>Driver do silników</t>
   </si>
   <si>
@@ -74,18 +71,12 @@
     <t>https://botland.com.pl/przewody-lgy/6689-przewod-instalacyjny-lgy-1x05-h05v-k-czarny-rolka-100m-5907702813332.html</t>
   </si>
   <si>
-    <t>Przewód instalacyjny</t>
-  </si>
-  <si>
     <t>Płytka drukowana</t>
   </si>
   <si>
     <t>https://botland.com.pl/plytki-uniwersalne/20269-plytka-drukowana-uniwersalna-dwustronna-90x150mm-5904422380533.html </t>
   </si>
   <si>
-    <t>Diody Led</t>
-  </si>
-  <si>
     <t>https://botland.com.pl/diody-led/19992-zestaw-diod-led-5mm-justpi-16szt-5904422328801.html </t>
   </si>
   <si>
@@ -98,21 +89,9 @@
     <t>Czujniki RfiD</t>
   </si>
   <si>
-    <t>ESP</t>
-  </si>
-  <si>
     <t>https://botland.com.pl/moduly-wifi-i-bt-esp32/8893-esp32-wifi-bt-42-platforma-z-modulem-esp-wroom-32-zgodny-z-esp32-devkit-5904422337438.html?cd=18298825651&amp;ad=&amp;kd=&amp;gad_source=1</t>
   </si>
   <si>
-    <t>https://botland.com.pl/koszyki-na-baterie/486-koszyk-na-2-baterie-typu-aa-r6-5904422350482.html</t>
-  </si>
-  <si>
-    <t>Koszyk na baterie ESP</t>
-  </si>
-  <si>
-    <t>Bez ESP:</t>
-  </si>
-  <si>
     <t>śrubki i nakrętki (zestaw)</t>
   </si>
   <si>
@@ -120,6 +99,30 @@
   </si>
   <si>
     <t>https://botland.com.pl/moduly-i-tagi-rfid/6765-modul-rfid-mf-rc522-1356mhz-spi-karta-i-brelok-5904422335014.html</t>
+  </si>
+  <si>
+    <t>https://botland.com.pl/serwa-typu-micro/20435-serwo-mg-90s-micro-180-stopni-metalowa-przekladnia-5904422380915.html</t>
+  </si>
+  <si>
+    <t>https://botland.com.pl/silniki-dc-katowe-z-przekladnia/3696-kolo-silnik-65x26mm-5v-z-przekladnia-48-1-5903351248129.html</t>
+  </si>
+  <si>
+    <t>bateria lipo do silników</t>
+  </si>
+  <si>
+    <t>https://botland.com.pl/akumulatory-li-pol-3s-111v-/1307-pakiet-li-pol-redox-700mah-20c-3s-111v-5903754000454.html</t>
+  </si>
+  <si>
+    <t>silnik z kołem (mamy 2)</t>
+  </si>
+  <si>
+    <t>Przewód instalacyjny (mamy)</t>
+  </si>
+  <si>
+    <t>Diody Led (mamy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP </t>
   </si>
 </sst>
 </file>
@@ -156,12 +159,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -192,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -211,6 +220,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -550,7 +572,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,165 +599,165 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7">
         <f>B2*C2</f>
+        <v>28</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3">
         <f>B3*C3</f>
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D12" si="0">B4*C4</f>
-        <v>30</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
+      <c r="D4" s="7">
+        <f>B4*C4</f>
+        <v>19</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:D11" si="0">B5*C5</f>
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
         <v>60</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <v>10</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="E8" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <v>15</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>50</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -743,53 +765,62 @@
         <v>23</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="3">
+        <v>50</v>
+      </c>
+      <c r="D12" s="3">
+        <f>B12*C12</f>
+        <v>50</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
         <v>11.9</v>
       </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
+      <c r="D13" s="3">
+        <f>B13*C13</f>
         <v>11.9</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
-        <f>SUM(D2:D12)</f>
-        <v>276.89999999999998</v>
-      </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
+      <c r="D14" s="3">
+        <f>SUM(D2:D13)</f>
+        <v>335.9</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -797,9 +828,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3">
-        <v>234</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -809,13 +838,6 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
@@ -881,16 +903,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://botland.com.pl/serwa-typu-micro/13128-serwo-sg-90-micro-180-5904422350338.html" xr:uid="{A4B653E2-97FC-4E87-BE05-D2E3EBC869A2}"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://botland.com.pl/arduino-shield-kontrolery-silnikow-i-serw/8224-l293d-motor-driver-board-sterownik-silnikow-16v06a-nakladka-dla-arduino-iduino-st1138-5903351241267.html" xr:uid="{94C8CBB2-4F53-4265-8CB5-A27FB5889C72}"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://botland.com.pl/przewody-polaczeniowe-zensko-meskie/1438-przewody-polaczeniowe-zensko-meskie-30cm-kolorowe-50szt-5904422349400.html" xr:uid="{AAD12579-644C-4A28-AEDA-B311F4BCFAAF}"/>
-    <hyperlink ref="E6" r:id="rId4" display="https://botland.com.pl/plytki-uniwersalne/20269-plytka-drukowana-uniwersalna-dwustronna-90x150mm-5904422380533.html" xr:uid="{8E57BAA7-BCE3-4204-A126-4A48C0EA1750}"/>
-    <hyperlink ref="E7" r:id="rId5" display="https://botland.com.pl/diody-led/19992-zestaw-diod-led-5mm-justpi-16szt-5904422328801.html" xr:uid="{E6059C8E-BED2-4642-906B-103BCE4A0117}"/>
-    <hyperlink ref="E8" r:id="rId6" display="https://botland.com.pl/rezystory-przewlekane/20151-rezystor-justpi-tht-cf-weglowy-14w-100-30szt-5904422329297.html" xr:uid="{750884EC-C6CA-4B85-AD51-32B68613EBBF}"/>
-    <hyperlink ref="E11" r:id="rId7" xr:uid="{46721CA3-F6C6-410B-9670-6956B5DADFDC}"/>
-    <hyperlink ref="E10" r:id="rId8" xr:uid="{37DD948E-294E-44F6-867F-6797C4816107}"/>
-    <hyperlink ref="E12" r:id="rId9" xr:uid="{F4BDE2B8-DBB3-45C6-B0F4-C19DC7EBE01E}"/>
-    <hyperlink ref="E9" r:id="rId10" xr:uid="{BE86960E-B81E-440F-9D81-973561446FEA}"/>
+    <hyperlink ref="E4" r:id="rId1" display="https://botland.com.pl/arduino-shield-kontrolery-silnikow-i-serw/8224-l293d-motor-driver-board-sterownik-silnikow-16v06a-nakladka-dla-arduino-iduino-st1138-5903351241267.html" xr:uid="{94C8CBB2-4F53-4265-8CB5-A27FB5889C72}"/>
+    <hyperlink ref="E5" r:id="rId2" display="https://botland.com.pl/przewody-polaczeniowe-zensko-meskie/1438-przewody-polaczeniowe-zensko-meskie-30cm-kolorowe-50szt-5904422349400.html" xr:uid="{AAD12579-644C-4A28-AEDA-B311F4BCFAAF}"/>
+    <hyperlink ref="E7" r:id="rId3" display="https://botland.com.pl/plytki-uniwersalne/20269-plytka-drukowana-uniwersalna-dwustronna-90x150mm-5904422380533.html" xr:uid="{8E57BAA7-BCE3-4204-A126-4A48C0EA1750}"/>
+    <hyperlink ref="E8" r:id="rId4" display="https://botland.com.pl/diody-led/19992-zestaw-diod-led-5mm-justpi-16szt-5904422328801.html" xr:uid="{E6059C8E-BED2-4642-906B-103BCE4A0117}"/>
+    <hyperlink ref="E9" r:id="rId5" display="https://botland.com.pl/rezystory-przewlekane/20151-rezystor-justpi-tht-cf-weglowy-14w-100-30szt-5904422329297.html" xr:uid="{750884EC-C6CA-4B85-AD51-32B68613EBBF}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{F4BDE2B8-DBB3-45C6-B0F4-C19DC7EBE01E}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{BE86960E-B81E-440F-9D81-973561446FEA}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{F568993F-E095-4078-A75D-9E002117FACA}"/>
+    <hyperlink ref="E2" r:id="rId9" xr:uid="{A2DB387E-9999-4E42-B1CD-35EAF06BFA50}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{37DD948E-294E-44F6-867F-6797C4816107}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ShoppingList/Lista_zakupów.xlsx
+++ b/ShoppingList/Lista_zakupów.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barto\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barto\IPZ\IPZ\ShoppingList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19A91E3-D6DB-49A0-B83F-FD43370E2CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0B4A9F-882A-4410-860C-06A31E4E0BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5388" yWindow="588" windowWidth="17280" windowHeight="8880" xr2:uid="{481C5104-1267-4EC0-9C85-AE1D523D59C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{481C5104-1267-4EC0-9C85-AE1D523D59C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Nazwa:</t>
   </si>
@@ -62,30 +62,12 @@
     <t>https://botland.com.pl/arduino-shield-kontrolery-silnikow-i-serw/8224-l293d-motor-driver-board-sterownik-silnikow-16v06a-nakladka-dla-arduino-iduino-st1138-5903351241267.html </t>
   </si>
   <si>
-    <t>https://botland.com.pl/przewody-polaczeniowe-zensko-meskie/1438-przewody-polaczeniowe-zensko-meskie-30cm-kolorowe-50szt-5904422349400.html </t>
-  </si>
-  <si>
-    <t>Przewody damsko męskie</t>
-  </si>
-  <si>
-    <t>https://botland.com.pl/przewody-lgy/6689-przewod-instalacyjny-lgy-1x05-h05v-k-czarny-rolka-100m-5907702813332.html</t>
-  </si>
-  <si>
     <t>Płytka drukowana</t>
   </si>
   <si>
     <t>https://botland.com.pl/plytki-uniwersalne/20269-plytka-drukowana-uniwersalna-dwustronna-90x150mm-5904422380533.html </t>
   </si>
   <si>
-    <t>https://botland.com.pl/diody-led/19992-zestaw-diod-led-5mm-justpi-16szt-5904422328801.html </t>
-  </si>
-  <si>
-    <t>Rezystory</t>
-  </si>
-  <si>
-    <t>https://botland.com.pl/rezystory-przewlekane/20151-rezystor-justpi-tht-cf-weglowy-14w-100-30szt-5904422329297.html </t>
-  </si>
-  <si>
     <t>Czujniki RfiD</t>
   </si>
   <si>
@@ -113,23 +95,23 @@
     <t>https://botland.com.pl/akumulatory-li-pol-3s-111v-/1307-pakiet-li-pol-redox-700mah-20c-3s-111v-5903754000454.html</t>
   </si>
   <si>
-    <t>silnik z kołem (mamy 2)</t>
-  </si>
-  <si>
-    <t>Przewód instalacyjny (mamy)</t>
-  </si>
-  <si>
-    <t>Diody Led (mamy)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ESP </t>
+  </si>
+  <si>
+    <t>goldpin</t>
+  </si>
+  <si>
+    <t>https://botland.com.pl/gniazda-szpilkowe-goldpin/9499-zestaw-zlacz-dla-esp32-thing-2x-1x20-raster-254mm-sparkfun-prt-14311-5904422313494.html</t>
+  </si>
+  <si>
+    <t>silnik z kołem (mamy 2, potrzebujemy 2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,19 +140,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -201,7 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -221,19 +206,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -569,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CC4745-5D6E-4F28-9B1B-8F3AC644793B}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,22 +587,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="9">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="9">
         <v>7</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="9">
         <f>B2*C2</f>
         <v>28</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>22</v>
+      <c r="E2" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -626,26 +615,26 @@
       <c r="C3" s="3">
         <v>23</v>
       </c>
-      <c r="D3" s="3">
-        <f>B3*C3</f>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D10" si="0">B3*C3</f>
         <v>23</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <v>19</v>
       </c>
-      <c r="D4" s="7">
-        <f>B4*C4</f>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -654,175 +643,135 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" ref="D5:D11" si="0">B5*C5</f>
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="7">
-        <v>60</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="3">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C8" s="3">
+        <v>36</v>
+      </c>
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="7">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
+        <v>50</v>
+      </c>
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
+      <c r="A10" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>11.9</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="12">
+        <f>SUM(D2:D10)</f>
+        <v>247.9</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
-        <v>50</v>
-      </c>
-      <c r="D12" s="3">
-        <f>B12*C12</f>
-        <v>50</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="D13" s="3">
-        <f>B13*C13</f>
-        <v>11.9</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
-        <f>SUM(D2:D13)</f>
-        <v>335.9</v>
-      </c>
-      <c r="E14" s="3"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -838,6 +787,13 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
@@ -880,39 +836,14 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="https://botland.com.pl/arduino-shield-kontrolery-silnikow-i-serw/8224-l293d-motor-driver-board-sterownik-silnikow-16v06a-nakladka-dla-arduino-iduino-st1138-5903351241267.html" xr:uid="{94C8CBB2-4F53-4265-8CB5-A27FB5889C72}"/>
-    <hyperlink ref="E5" r:id="rId2" display="https://botland.com.pl/przewody-polaczeniowe-zensko-meskie/1438-przewody-polaczeniowe-zensko-meskie-30cm-kolorowe-50szt-5904422349400.html" xr:uid="{AAD12579-644C-4A28-AEDA-B311F4BCFAAF}"/>
-    <hyperlink ref="E7" r:id="rId3" display="https://botland.com.pl/plytki-uniwersalne/20269-plytka-drukowana-uniwersalna-dwustronna-90x150mm-5904422380533.html" xr:uid="{8E57BAA7-BCE3-4204-A126-4A48C0EA1750}"/>
-    <hyperlink ref="E8" r:id="rId4" display="https://botland.com.pl/diody-led/19992-zestaw-diod-led-5mm-justpi-16szt-5904422328801.html" xr:uid="{E6059C8E-BED2-4642-906B-103BCE4A0117}"/>
-    <hyperlink ref="E9" r:id="rId5" display="https://botland.com.pl/rezystory-przewlekane/20151-rezystor-justpi-tht-cf-weglowy-14w-100-30szt-5904422329297.html" xr:uid="{750884EC-C6CA-4B85-AD51-32B68613EBBF}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{F4BDE2B8-DBB3-45C6-B0F4-C19DC7EBE01E}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{BE86960E-B81E-440F-9D81-973561446FEA}"/>
-    <hyperlink ref="E6" r:id="rId8" xr:uid="{F568993F-E095-4078-A75D-9E002117FACA}"/>
-    <hyperlink ref="E2" r:id="rId9" xr:uid="{A2DB387E-9999-4E42-B1CD-35EAF06BFA50}"/>
-    <hyperlink ref="E12" r:id="rId10" xr:uid="{37DD948E-294E-44F6-867F-6797C4816107}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{94C8CBB2-4F53-4265-8CB5-A27FB5889C72}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{8E57BAA7-BCE3-4204-A126-4A48C0EA1750}"/>
+    <hyperlink ref="E10" r:id="rId3" xr:uid="{F4BDE2B8-DBB3-45C6-B0F4-C19DC7EBE01E}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{BE86960E-B81E-440F-9D81-973561446FEA}"/>
+    <hyperlink ref="E2" r:id="rId5" xr:uid="{A2DB387E-9999-4E42-B1CD-35EAF06BFA50}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{37DD948E-294E-44F6-867F-6797C4816107}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
